--- a/Journal-de-Travail_PhilippeHeijkoop.xlsx
+++ b/Journal-de-Travail_PhilippeHeijkoop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pf25xeu\Documents\GitHub\P_AppMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8AA0B0-73E8-420D-B9E2-F969411A0287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE811EAD-A61F-4813-B507-0176D7D11DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>Nom Prénom</t>
-  </si>
-  <si>
     <t>18.03.2024  au 27.05.2024</t>
   </si>
   <si>
@@ -143,6 +140,24 @@
   <si>
     <t>J'ai essayer de lire un fichier .epub avec VersOne mais je n'y suis pas arrivé complètement</t>
   </si>
+  <si>
+    <t>Discussion et remémoration du travail</t>
+  </si>
+  <si>
+    <t>Connection entre l'application mobile et l'API</t>
+  </si>
+  <si>
+    <t>Essai de lecture du fichier Epub et Affichage mais sans réussite pour l'instant</t>
+  </si>
+  <si>
+    <t>Heijkoop Philippe</t>
+  </si>
+  <si>
+    <t>Je n'ai toujours pas réussi à lire l'EPUB car il est stocké en Blob dans la db et j'ai du mal à le convertir</t>
+  </si>
+  <si>
+    <t>Je n'ai toujours pas réussi</t>
+  </si>
 </sst>
 </file>
 
@@ -156,9 +171,16 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -325,21 +347,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -352,7 +374,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -372,31 +394,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,8 +430,8 @@
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -418,17 +440,21 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,7 +1062,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21875</c:v>
+                  <c:v>0.3611111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1054,7 +1080,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,7 +1993,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
@@ -2011,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -2020,7 +2046,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 15 minutes</v>
+        <v>0 jours 9 heurs 49 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2028,22 +2054,22 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>375</v>
+        <v>590</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2095,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="16"/>
     </row>
@@ -2117,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="17"/>
       <c r="M8" t="s">
@@ -2146,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="20"/>
       <c r="M9" t="s">
@@ -2197,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
@@ -2228,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
@@ -2242,6 +2268,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
+        <v/>
+      </c>
       <c r="B13" s="40"/>
       <c r="C13" s="36"/>
       <c r="D13" s="44"/>
@@ -2259,10 +2289,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="A14" s="8">
+        <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
+        <v>16</v>
+      </c>
+      <c r="B14" s="39">
+        <v>45397</v>
+      </c>
       <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
+      <c r="D14" s="43">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>24</v>
@@ -2275,12 +2318,25 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="48"/>
+      <c r="A15" s="8">
+        <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
+        <v>16</v>
+      </c>
+      <c r="B15" s="40">
+        <v>45397</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
+      <c r="D15" s="44">
+        <v>20</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="M15" t="s">
         <v>25</v>
@@ -2293,39 +2349,81 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="A16" s="8">
+        <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
+        <v>16</v>
+      </c>
+      <c r="B16" s="39">
+        <v>45397</v>
+      </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="43">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="8">
+        <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="40">
+        <v>45397</v>
+      </c>
+      <c r="C17" s="36">
+        <v>1</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+      <c r="A18" s="8">
+        <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
+        <v>16</v>
+      </c>
+      <c r="B18" s="39">
+        <v>45397</v>
+      </c>
       <c r="C18" s="35"/>
-      <c r="D18" s="43"/>
-      <c r="F18" s="48"/>
+      <c r="D18" s="43">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="8" t="str">
+        <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
+        <v/>
+      </c>
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
       <c r="D19" s="44"/>
@@ -2337,6 +2435,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
+        <v/>
+      </c>
       <c r="B20" s="39"/>
       <c r="C20" s="35"/>
       <c r="D20" s="43"/>
@@ -2344,7 +2446,10 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="8" t="str">
+        <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
+        <v/>
+      </c>
       <c r="B21" s="40"/>
       <c r="C21" s="36"/>
       <c r="D21" s="44"/>
@@ -2353,6 +2458,10 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
+        <v/>
+      </c>
       <c r="B22" s="39"/>
       <c r="C22" s="35"/>
       <c r="D22" s="43"/>
@@ -2360,7 +2469,10 @@
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="8" t="str">
+        <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
+        <v/>
+      </c>
       <c r="B23" s="40"/>
       <c r="C23" s="36"/>
       <c r="D23" s="44"/>
@@ -2369,6 +2481,10 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
+        <v/>
+      </c>
       <c r="B24" s="39"/>
       <c r="C24" s="35"/>
       <c r="D24" s="43"/>
@@ -2376,7 +2492,10 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="8" t="str">
+        <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
+        <v/>
+      </c>
       <c r="B25" s="40"/>
       <c r="C25" s="36"/>
       <c r="D25" s="44"/>
@@ -2385,6 +2504,10 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
+        <v/>
+      </c>
       <c r="B26" s="39"/>
       <c r="C26" s="35"/>
       <c r="D26" s="43"/>
@@ -2392,7 +2515,10 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="8" t="str">
+        <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
+        <v/>
+      </c>
       <c r="B27" s="40"/>
       <c r="C27" s="36"/>
       <c r="D27" s="44"/>
@@ -2401,6 +2527,10 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
+        <v/>
+      </c>
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
       <c r="D28" s="43"/>
@@ -2408,7 +2538,10 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="8" t="str">
+        <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
+        <v/>
+      </c>
       <c r="B29" s="40"/>
       <c r="C29" s="36"/>
       <c r="D29" s="44"/>
@@ -2417,6 +2550,10 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
+        <v/>
+      </c>
       <c r="B30" s="39"/>
       <c r="C30" s="35"/>
       <c r="D30" s="43"/>
@@ -2424,7 +2561,10 @@
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="8" t="str">
+        <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
+        <v/>
+      </c>
       <c r="B31" s="40"/>
       <c r="C31" s="36"/>
       <c r="D31" s="44"/>
@@ -2433,6 +2573,10 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="str">
+        <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
+        <v/>
+      </c>
       <c r="B32" s="39"/>
       <c r="C32" s="35"/>
       <c r="D32" s="43"/>
@@ -2440,7 +2584,10 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="8" t="str">
+        <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
+        <v/>
+      </c>
       <c r="B33" s="40"/>
       <c r="C33" s="36"/>
       <c r="D33" s="44"/>
@@ -2449,6 +2596,10 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="str">
+        <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
+        <v/>
+      </c>
       <c r="B34" s="39"/>
       <c r="C34" s="35"/>
       <c r="D34" s="43"/>
@@ -2456,7 +2607,10 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="8" t="str">
+        <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
+        <v/>
+      </c>
       <c r="B35" s="40"/>
       <c r="C35" s="36"/>
       <c r="D35" s="44"/>
@@ -2465,6 +2619,10 @@
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="str">
+        <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
+        <v/>
+      </c>
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="43"/>
@@ -2472,7 +2630,10 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="8" t="str">
+        <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
+        <v/>
+      </c>
       <c r="B37" s="40"/>
       <c r="C37" s="36"/>
       <c r="D37" s="44"/>
@@ -2481,6 +2642,10 @@
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="str">
+        <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
+        <v/>
+      </c>
       <c r="B38" s="39"/>
       <c r="C38" s="35"/>
       <c r="D38" s="43"/>
@@ -2488,7 +2653,10 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="8" t="str">
+        <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
+        <v/>
+      </c>
       <c r="B39" s="40"/>
       <c r="C39" s="36"/>
       <c r="D39" s="44"/>
@@ -2497,6 +2665,10 @@
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="str">
+        <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
+        <v/>
+      </c>
       <c r="B40" s="39"/>
       <c r="C40" s="35"/>
       <c r="D40" s="43"/>
@@ -2504,7 +2676,10 @@
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="8" t="str">
+        <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
+        <v/>
+      </c>
       <c r="B41" s="40"/>
       <c r="C41" s="36"/>
       <c r="D41" s="44"/>
@@ -2513,6 +2688,10 @@
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="str">
+        <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
+        <v/>
+      </c>
       <c r="B42" s="39"/>
       <c r="C42" s="35"/>
       <c r="D42" s="43"/>
@@ -2520,7 +2699,10 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="8" t="str">
+        <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
+        <v/>
+      </c>
       <c r="B43" s="40"/>
       <c r="C43" s="36"/>
       <c r="D43" s="44"/>
@@ -2529,6 +2711,10 @@
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="str">
+        <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
+        <v/>
+      </c>
       <c r="B44" s="39"/>
       <c r="C44" s="35"/>
       <c r="D44" s="43"/>
@@ -2536,7 +2722,10 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="8" t="str">
+        <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
+        <v/>
+      </c>
       <c r="B45" s="40"/>
       <c r="C45" s="36"/>
       <c r="D45" s="44"/>
@@ -2545,6 +2734,10 @@
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="str">
+        <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
+        <v/>
+      </c>
       <c r="B46" s="39"/>
       <c r="C46" s="35"/>
       <c r="D46" s="43"/>
@@ -2552,7 +2745,10 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="8" t="str">
+        <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
+        <v/>
+      </c>
       <c r="B47" s="40"/>
       <c r="C47" s="36"/>
       <c r="D47" s="44"/>
@@ -2561,6 +2757,10 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="str">
+        <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
+        <v/>
+      </c>
       <c r="B48" s="39"/>
       <c r="C48" s="35"/>
       <c r="D48" s="43"/>
@@ -2568,7 +2768,10 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="8" t="str">
+        <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
+        <v/>
+      </c>
       <c r="B49" s="40"/>
       <c r="C49" s="36"/>
       <c r="D49" s="44"/>
@@ -2577,6 +2780,10 @@
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="str">
+        <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
+        <v/>
+      </c>
       <c r="B50" s="39"/>
       <c r="C50" s="35"/>
       <c r="D50" s="43"/>
@@ -2584,7 +2791,10 @@
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="8" t="str">
+        <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
+        <v/>
+      </c>
       <c r="B51" s="40"/>
       <c r="C51" s="36"/>
       <c r="D51" s="44"/>
@@ -2593,6 +2803,10 @@
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="str">
+        <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
+        <v/>
+      </c>
       <c r="B52" s="39"/>
       <c r="C52" s="35"/>
       <c r="D52" s="43"/>
@@ -2600,7 +2814,10 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="8" t="str">
+        <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
+        <v/>
+      </c>
       <c r="B53" s="40"/>
       <c r="C53" s="36"/>
       <c r="D53" s="44"/>
@@ -2609,6 +2826,10 @@
       <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="str">
+        <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
+        <v/>
+      </c>
       <c r="B54" s="39"/>
       <c r="C54" s="35"/>
       <c r="D54" s="43"/>
@@ -2616,7 +2837,10 @@
       <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="8" t="str">
+        <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
+        <v/>
+      </c>
       <c r="B55" s="40"/>
       <c r="C55" s="36"/>
       <c r="D55" s="44"/>
@@ -2636,7 +2860,7 @@
       <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="str">
+      <c r="A57" s="8" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
       </c>
@@ -2659,7 +2883,7 @@
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="str">
+      <c r="A59" s="8" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
       </c>
@@ -2682,7 +2906,7 @@
       <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="str">
+      <c r="A61" s="8" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
       </c>
@@ -2705,7 +2929,7 @@
       <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="str">
+      <c r="A63" s="8" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
       </c>
@@ -2728,7 +2952,7 @@
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="str">
+      <c r="A65" s="8" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
       </c>
@@ -2751,7 +2975,7 @@
       <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="18" t="str">
+      <c r="A67" s="8" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
       </c>
@@ -2774,7 +2998,7 @@
       <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="18" t="str">
+      <c r="A69" s="8" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
       </c>
@@ -8212,11 +8436,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8224,7 +8448,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.21875</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8316,7 +8540,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8324,7 +8548,7 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8333,7 +8557,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.26041666666666669</v>
+        <v>0.40972222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Journal-de-Travail_PhilippeHeijkoop.xlsx
+++ b/Journal-de-Travail_PhilippeHeijkoop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pf25xeu\Documents\GitHub\P_AppMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE811EAD-A61F-4813-B507-0176D7D11DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4838B65-C5FD-4AA4-82E4-82E5164C996E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Je n'ai toujours pas réussi</t>
+  </si>
+  <si>
+    <t>J'ai trouvé un moyen de lire un fichier Epub grâce à VersOne, j'avais des problèmes d'assembly avec EpubLocalContentFile</t>
+  </si>
+  <si>
+    <t>13h25</t>
   </si>
 </sst>
 </file>
@@ -445,16 +451,16 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="20" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,7 +1068,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3611111111111111</c:v>
+                  <c:v>0.40625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1993,7 +1999,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2028,11 +2034,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2052,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 49 minutes</v>
+        <v>0 jours 10 heurs 55 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2061,24 +2067,24 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>590</v>
+        <v>655</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -2388,7 +2394,7 @@
       <c r="E17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="54" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="20"/>
@@ -2419,16 +2425,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="str">
+    <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="48"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="40">
+        <v>45404</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
+      <c r="D19" s="44">
+        <v>5</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="20"/>
       <c r="O19">
         <v>55</v>
@@ -2442,7 +2458,9 @@
       <c r="B20" s="39"/>
       <c r="C20" s="35"/>
       <c r="D20" s="43"/>
-      <c r="F20" s="48"/>
+      <c r="F20" s="48" t="s">
+        <v>40</v>
+      </c>
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -8436,11 +8454,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8448,7 +8466,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.3611111111111111</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8557,7 +8575,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.40972222222222221</v>
+        <v>0.4548611111111111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8579,18 +8597,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8856,6 +8862,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8865,20 +8883,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8896,4 +8900,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journal-de-Travail_PhilippeHeijkoop.xlsx
+++ b/Journal-de-Travail_PhilippeHeijkoop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pf25xeu\Documents\GitHub\P_AppMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4838B65-C5FD-4AA4-82E4-82E5164C996E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DA8D0-40C4-4D5F-B8A3-BCE0EDF728A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -162,7 +162,7 @@
     <t>J'ai trouvé un moyen de lire un fichier Epub grâce à VersOne, j'avais des problèmes d'assembly avec EpubLocalContentFile</t>
   </si>
   <si>
-    <t>13h25</t>
+    <t>J'ai refait la db, j'ai essayer d'afficher le epub de la db dans l'application mais je n'arrive pas a l'afficher et à l'enregistrer dans le téléphone</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40625</c:v>
+                  <c:v>0.50347222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 55 minutes</v>
+        <v>0 jours 13 heurs 15 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2067,15 +2067,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>655</v>
+        <v>795</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2450,14 +2450,23 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="39">
+        <v>45404</v>
+      </c>
+      <c r="C20" s="35">
+        <v>2</v>
+      </c>
+      <c r="D20" s="43">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
       <c r="F20" s="48" t="s">
         <v>40</v>
       </c>
@@ -8454,11 +8463,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8466,7 +8475,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.40625</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8575,7 +8584,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.4548611111111111</v>
+        <v>0.55208333333333326</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8597,6 +8606,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8862,18 +8883,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8883,6 +8892,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8900,18 +8923,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journal-de-Travail_PhilippeHeijkoop.xlsx
+++ b/Journal-de-Travail_PhilippeHeijkoop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pf25xeu\Documents\GitHub\P_AppMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1DA8D0-40C4-4D5F-B8A3-BCE0EDF728A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B38CC3-8D10-48CF-B210-4882CC7BCA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -163,6 +163,36 @@
   </si>
   <si>
     <t>J'ai refait la db, j'ai essayer d'afficher le epub de la db dans l'application mais je n'arrive pas a l'afficher et à l'enregistrer dans le téléphone</t>
+  </si>
+  <si>
+    <t>Séance des délégués</t>
+  </si>
+  <si>
+    <t>Problème http</t>
+  </si>
+  <si>
+    <t>J'ai réussi à lire l'EPUB depuis la requete http et afficher le contenu mais ce n'est pas parfait</t>
+  </si>
+  <si>
+    <t>Les informations sont coupées parce que le scrollView ne marche pas</t>
+  </si>
+  <si>
+    <t>Adapation du Backend pour insérer tout les epub dans la db</t>
+  </si>
+  <si>
+    <t>Route par ID pour récupérer les livres</t>
+  </si>
+  <si>
+    <t>C'est impossible d'envoyer plusieurs fichiers avec un res.send()</t>
+  </si>
+  <si>
+    <t>J'affiche le titre de tout les epub de la DB</t>
+  </si>
+  <si>
+    <t>TODO faire une route qui retourne le nombre de fichier présent pour connaitre le nombre de livre à récupérer</t>
+  </si>
+  <si>
+    <t>14h17</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1098,10 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50347222222222221</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1998,8 +2028,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2082,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 13 heurs 15 minutes</v>
+        <v>0 jours 15 heurs 9 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2071,11 +2101,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>795</v>
+        <v>910</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2485,14 +2515,18 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="39"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="39">
+        <v>45411</v>
+      </c>
       <c r="C22" s="35"/>
       <c r="D22" s="43"/>
-      <c r="F22" s="48"/>
+      <c r="F22" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2508,14 +2542,23 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="39"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="39">
+        <v>45418</v>
+      </c>
       <c r="C24" s="35"/>
-      <c r="D24" s="43"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="43">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2525,10 +2568,18 @@
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="36"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="20"/>
+      <c r="D25" s="44">
+        <v>20</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
@@ -2537,8 +2588,15 @@
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="35"/>
-      <c r="D26" s="43"/>
-      <c r="F26" s="48"/>
+      <c r="D26" s="43">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>45</v>
+      </c>
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2548,21 +2606,38 @@
       </c>
       <c r="B27" s="40"/>
       <c r="C27" s="36"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="44">
+        <v>25</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
-      <c r="D28" s="43"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="17"/>
+      <c r="D28" s="43">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
@@ -2573,7 +2648,9 @@
       <c r="C29" s="36"/>
       <c r="D29" s="44"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="47"/>
+      <c r="F29" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8467,7 +8544,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>245</v>
+        <v>320</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8475,7 +8552,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.50347222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8485,7 +8562,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C6" s="29" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8493,7 +8570,7 @@
       </c>
       <c r="D6" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8584,7 +8661,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.55208333333333326</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8606,18 +8683,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8883,6 +8948,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8892,20 +8969,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8923,4 +8986,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journal-de-Travail_PhilippeHeijkoop.xlsx
+++ b/Journal-de-Travail_PhilippeHeijkoop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pf25xeu\Documents\GitHub\P_AppMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B38CC3-8D10-48CF-B210-4882CC7BCA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D0AF6-EA77-435E-85D4-3DFD9B22265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -192,7 +192,10 @@
     <t>TODO faire une route qui retourne le nombre de fichier présent pour connaitre le nombre de livre à récupérer</t>
   </si>
   <si>
-    <t>14h17</t>
+    <t>Aide pour Adrian</t>
+  </si>
+  <si>
+    <t>Affichage de la cover du livre</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1101,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.57986111111111116</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.7777777777777776E-2</c:v>
@@ -2028,8 +2031,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2085,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 9 minutes</v>
+        <v>0 jours 15 heurs 45 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2101,11 +2104,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>910</v>
+        <v>945</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2648,9 +2651,7 @@
       <c r="C29" s="36"/>
       <c r="D29" s="44"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="F29" s="47"/>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2660,8 +2661,15 @@
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="35"/>
-      <c r="D30" s="43"/>
-      <c r="F30" s="48"/>
+      <c r="D30" s="43">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2671,9 +2679,15 @@
       </c>
       <c r="B31" s="40"/>
       <c r="C31" s="36"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="47"/>
+      <c r="D31" s="44">
+        <v>10</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -8544,7 +8558,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8552,7 +8566,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.55555555555555558</v>
+        <v>0.57986111111111116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8661,7 +8675,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.63194444444444442</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8683,6 +8697,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8948,18 +8974,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8969,6 +8983,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8986,18 +9014,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Journal-de-Travail_PhilippeHeijkoop.xlsx
+++ b/Journal-de-Travail_PhilippeHeijkoop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pf25xeu\Documents\GitHub\P_AppMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D0AF6-EA77-435E-85D4-3DFD9B22265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7134AB-CD8A-4207-8A0F-1229B5A0AD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Affichage de la cover du livre</t>
+  </si>
+  <si>
+    <t>Validation des projets et Auto-éval</t>
+  </si>
+  <si>
+    <t>Affichage du contenu du livre sans style et sans page défini</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1107,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57986111111111116</c:v>
+                  <c:v>0.61111111111111116</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.7777777777777776E-2</c:v>
@@ -1110,7 +1116,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2031,8 +2037,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2091,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 45 minutes</v>
+        <v>0 jours 17 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2104,11 +2110,11 @@
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>945</v>
+        <v>1020</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2702,15 +2708,23 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="str">
+      <c r="A33" s="8">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="40"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="40">
+        <v>45425</v>
+      </c>
       <c r="C33" s="36"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="47"/>
+      <c r="D33" s="44">
+        <v>30</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2720,8 +2734,15 @@
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="43"/>
-      <c r="F34" s="47"/>
+      <c r="D34" s="43">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>53</v>
+      </c>
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8558,7 +8579,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8566,7 +8587,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.57986111111111116</v>
+        <v>0.61111111111111116</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8612,7 +8633,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C8" s="31" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8620,7 +8641,7 @@
       </c>
       <c r="D8" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8675,7 +8696,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.65625</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8697,18 +8718,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8974,6 +8983,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8983,20 +9004,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9014,4 +9021,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Journal-de-Travail_PhilippeHeijkoop.xlsx
+++ b/Journal-de-Travail_PhilippeHeijkoop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pf25xeu\Documents\GitHub\P_AppMobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7134AB-CD8A-4207-8A0F-1229B5A0AD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF085479-DB0D-4E0C-9041-1DAB59432B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Affichage du contenu du livre sans style et sans page défini</t>
+  </si>
+  <si>
+    <t>Problème de navigation, à chaque navigation, il recharge tout les livres de la db en double puis en triple</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1110,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61111111111111116</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.7777777777777776E-2</c:v>
@@ -2037,8 +2040,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2094,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 17 heurs 0 minutes</v>
+        <v>0 jours 17 heurs 19 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2106,15 +2109,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2733,9 +2736,11 @@
         <v/>
       </c>
       <c r="B34" s="39"/>
-      <c r="C34" s="35"/>
+      <c r="C34" s="35">
+        <v>1</v>
+      </c>
       <c r="D34" s="43">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -2745,7 +2750,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2754,7 +2759,9 @@
       <c r="C35" s="36"/>
       <c r="D35" s="44"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="48"/>
+      <c r="F35" s="48" t="s">
+        <v>54</v>
+      </c>
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8575,11 +8582,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8587,7 +8594,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.61111111111111116</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8696,7 +8703,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.70833333333333337</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8718,6 +8725,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8983,18 +9002,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9004,6 +9011,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9021,18 +9042,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>